--- a/Seller DB.xlsx
+++ b/Seller DB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
   <si>
     <t>Column Name</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Bit</t>
+  </si>
+  <si>
+    <t>ADDED NEW FIELD</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -883,7 +886,9 @@
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
